--- a/data/waived_who.xlsx
+++ b/data/waived_who.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CA0AFE-668E-4987-ABE4-A37CCEA56CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A2B76F-B1B7-4BA3-ACA1-6807C2576685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,23 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>waived</t>
   </si>
   <si>
-    <t>Invited speakers, panelists (≤1 per session), and session chairs.</t>
-  </si>
-  <si>
-    <t>Invited panelists for the short topic session.</t>
-  </si>
-  <si>
-    <t>Participating students and regulatory colleagues.</t>
-  </si>
-  <si>
-    <t>Members of the Scientific Program Committee, Organising Team or the Local Execution Team.</t>
-  </si>
-  <si>
     <t>who</t>
   </si>
   <si>
@@ -58,6 +46,21 @@
   </si>
   <si>
     <t>Academics (except students)</t>
+  </si>
+  <si>
+    <t>Invited speakers, panelists (&lt;=1 per session), session chairs</t>
+  </si>
+  <si>
+    <t>Invited panelists for the short topic session</t>
+  </si>
+  <si>
+    <t>MSc and PhD students</t>
+  </si>
+  <si>
+    <t>Colleagues from regulatory agencies</t>
+  </si>
+  <si>
+    <t>Members of the Scientific Program Committee, Organising Committee, and the Local Execution Team</t>
   </si>
 </sst>
 </file>
@@ -99,12 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="8"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -389,55 +389,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="93.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
+      <c r="A1" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -445,25 +445,33 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
+      <c r="A8" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
